--- a/физика/мат маятник/Лист Microsoft Excel.xlsx
+++ b/физика/мат маятник/Лист Microsoft Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCFU\физика\мат маятник\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33599DA6-E155-4E10-B8EC-BC3C9E42EE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ECB86D-39F0-4417-A2A7-7055432019AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,7 +254,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -266,22 +284,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -316,6 +319,71 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>График зависимости периодов колибаний прямого и перевернутого маятников от расстояния </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>d</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -328,13 +396,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -354,8 +436,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.2817147856517939E-2"/>
           <c:y val="0.17171296296296296"/>
-          <c:w val="0.88207038469303767"/>
-          <c:h val="0.7060761365232735"/>
+          <c:w val="0.89587709080743605"/>
+          <c:h val="0.63688686819756057"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -388,6 +470,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.069219440353461E-4"/>
+                  <c:y val="-1.3497380830364133E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист2!$A$3:$A$10</c:f>
@@ -488,6 +620,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0476190476190476E-2"/>
+                  <c:y val="-1.337274401754527E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист2!$A$3:$A$10</c:f>
@@ -579,6 +761,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Расстояние </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>d</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>, см</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -641,6 +886,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Период</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> колебания </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>T1, T2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>, с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1391,15 +1704,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:rowOff>195261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1690,33 +2003,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B4F0F2-F753-4548-9B22-571393006311}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +2047,7 @@
       <c r="A3" s="2">
         <v>18</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>10</v>
       </c>
       <c r="C3" s="1">
@@ -1756,7 +2069,7 @@
       <c r="A4" s="2">
         <v>16</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>12.8</v>
       </c>
@@ -1776,7 +2089,7 @@
       <c r="A5" s="2">
         <v>14</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1">
         <v>12.8</v>
       </c>
@@ -1796,7 +2109,7 @@
       <c r="A6" s="2">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1">
         <v>12.5</v>
       </c>
@@ -1816,7 +2129,7 @@
       <c r="A7" s="2">
         <v>10</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1">
         <v>12.5</v>
       </c>
@@ -1836,7 +2149,7 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1">
         <v>11.9</v>
       </c>
@@ -1856,7 +2169,7 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1">
         <v>11.8</v>
       </c>
@@ -1876,7 +2189,7 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1">
         <v>11.7</v>
       </c>
@@ -1892,18 +2205,21 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+    </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1918,7 +2234,7 @@
       <c r="C15" s="1">
         <v>47.1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <v>40</v>
       </c>
     </row>
@@ -1933,7 +2249,7 @@
       <c r="C16" s="1">
         <v>46.9</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1946,18 +2262,18 @@
       <c r="C17" s="3">
         <v>47</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <f>AVERAGE(B15:B17)</f>
         <v>1.1749999999999998</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -1973,15 +2289,21 @@
         <v>9.7123085559076543</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>((9.8-9.7)/9.8)*100</f>
+        <v>1.0204081632653206</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:B10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
